--- a/public/template_xls/template_provider.xlsx
+++ b/public/template_xls/template_provider.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ies\public\template_xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\template_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E553BC63-FBCC-40E0-9DFA-488FFB9E42D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7F2FB2-76D9-41A0-A368-14A15B433CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
